--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\TPLR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B33EDB-4E79-427D-A3D2-E69B0E00D1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E283A791-AE01-421B-AE0F-5D7EC596B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="MigrationData" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InflationData!$A$2:$A$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InflationData!$A$2:$A$133</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,246 +498,222 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>35400</v>
+        <v>36495</v>
       </c>
       <c r="B2" s="11">
-        <v>21.81</v>
+        <v>36.56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
-        <v>35765</v>
+        <v>36861</v>
       </c>
       <c r="B3" s="11">
-        <v>11.03</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>36130</v>
+        <v>37226</v>
       </c>
       <c r="B4" s="11">
-        <v>84.44</v>
+        <v>18.579999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
-        <v>36495</v>
+        <v>37591</v>
       </c>
       <c r="B5" s="11">
-        <v>36.56</v>
+        <v>15.06</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>36861</v>
+        <v>37956</v>
       </c>
       <c r="B6" s="11">
-        <v>20.2</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>37226</v>
+        <v>38322</v>
       </c>
       <c r="B7" s="11">
-        <v>18.579999999999998</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>37591</v>
+        <v>38687</v>
       </c>
       <c r="B8" s="11">
-        <v>15.06</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>37956</v>
+        <v>39052</v>
       </c>
       <c r="B9" s="11">
-        <v>11.99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>38322</v>
+        <v>39417</v>
       </c>
       <c r="B10" s="11">
-        <v>11.74</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>38687</v>
+        <v>39783</v>
       </c>
       <c r="B11" s="11">
-        <v>10.91</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>39052</v>
+        <v>40148</v>
       </c>
       <c r="B12" s="11">
-        <v>9</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>39417</v>
+        <v>40513</v>
       </c>
       <c r="B13" s="11">
-        <v>11.87</v>
+        <v>8.7799999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>39783</v>
+        <v>40878</v>
       </c>
       <c r="B14" s="11">
-        <v>13.28</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>40148</v>
+        <v>41244</v>
       </c>
       <c r="B15" s="11">
-        <v>8.8000000000000007</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>40513</v>
+        <v>41609</v>
       </c>
       <c r="B16" s="11">
-        <v>8.7799999999999994</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>40878</v>
+        <v>41974</v>
       </c>
       <c r="B17" s="11">
-        <v>6.1</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>41244</v>
+        <v>42339</v>
       </c>
       <c r="B18" s="11">
-        <v>6.58</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>41609</v>
+        <v>42705</v>
       </c>
       <c r="B19" s="11">
-        <v>6.45</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>41974</v>
+        <v>43070</v>
       </c>
       <c r="B20" s="11">
-        <v>11.36</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>42339</v>
+        <v>43435</v>
       </c>
       <c r="B21" s="11">
-        <v>12.91</v>
-      </c>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>42705</v>
+        <v>43800</v>
       </c>
       <c r="B22" s="11">
-        <v>5.38</v>
-      </c>
+        <v>3.05</v>
+      </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>43070</v>
+        <v>44166</v>
       </c>
       <c r="B23" s="11">
-        <v>2.52</v>
-      </c>
+        <v>4.91</v>
+      </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>43435</v>
+        <v>44531</v>
       </c>
       <c r="B24" s="11">
-        <v>4.2699999999999996</v>
+        <v>8.39</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>43800</v>
+        <v>44896</v>
       </c>
       <c r="B25" s="11">
-        <v>3.05</v>
+        <v>11.92</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>44166</v>
+        <v>45261</v>
       </c>
       <c r="B26" s="11">
-        <v>4.91</v>
+        <v>7.42</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>44531</v>
+        <v>45627</v>
       </c>
       <c r="B27" s="11">
-        <v>8.39</v>
+        <v>8.52</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>44896</v>
-      </c>
-      <c r="B28" s="11">
-        <v>11.92</v>
-      </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>45261</v>
-      </c>
-      <c r="B29" s="11">
-        <v>7.42</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>45627</v>
-      </c>
-      <c r="B30" s="11">
-        <v>8.52</v>
-      </c>
-      <c r="C30" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
-    <sortCondition ref="A2:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
+    <sortCondition ref="A2:A28"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\TPLR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E283A791-AE01-421B-AE0F-5D7EC596B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4691E1-5AF1-497D-B161-A0FF12E9CC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,6 +710,21 @@
         <v>8.52</v>
       </c>
       <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>46357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>46722</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
